--- a/top_words_comparison.xlsx
+++ b/top_words_comparison.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5860" yWindow="1020" windowWidth="28040" windowHeight="17440" xr2:uid="{CDC9F2AB-61A1-B346-9DEA-F3091FC81647}"/>
+    <workbookView xWindow="1740" yWindow="3800" windowWidth="28040" windowHeight="17440" xr2:uid="{CDC9F2AB-61A1-B346-9DEA-F3091FC81647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>REAL</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>REAL_WINS</t>
+  </si>
+  <si>
+    <t>TOKEN</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,21 +145,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Gill Sans Light"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Gill Sans Light"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -165,10 +199,15 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -485,546 +524,551 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39DE15C-2481-5046-B1EC-B7550DF2B39E}">
-  <dimension ref="C1:G28"/>
+  <dimension ref="C4:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="1" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D5" s="4">
         <v>3664</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E5" s="4">
         <v>2865</v>
       </c>
-      <c r="F2" s="2">
-        <f>D2/MIN(D2:E2)-1</f>
+      <c r="F5" s="5">
+        <f>D5/MIN(D5:E5)-1</f>
         <v>0.27888307155322867</v>
       </c>
-      <c r="G2" s="2">
-        <f t="shared" ref="G2:G12" si="0">E2/MIN(D2:E2)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:G15" si="0">E5/MIN(D5:E5)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D6" s="4">
         <v>3154</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E6" s="4">
         <v>3376</v>
       </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F28" si="1">D3/MIN(D3:E3)-1</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F6" s="5">
+        <f t="shared" ref="F6:F31" si="1">D6/MIN(D6:E6)-1</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
         <v>7.0386810399492683E-2</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D7" s="4">
         <v>3043</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E7" s="4">
         <v>2597</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
         <v>0.17173661917597238</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D8" s="4">
         <v>2702</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E8" s="4">
         <v>2012</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
         <v>0.34294234592445338</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D9" s="4">
         <v>2596</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E9" s="4">
         <v>2571</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
         <v>9.723842862699339E-3</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D10" s="4">
         <v>2344</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E10" s="4">
         <v>1990</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
         <v>0.17788944723618094</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D11" s="4">
         <v>2214</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E11" s="4">
         <v>1744</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
         <v>0.26949541284403677</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D12" s="4">
         <v>1959</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E12" s="4">
         <v>1640</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
         <v>0.19451219512195128</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D13" s="4">
         <v>1711</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E13" s="4">
         <v>2503</v>
       </c>
-      <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>0.46288720046756282</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D14" s="4">
         <v>1711</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E14" s="4">
         <v>1542</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F14" s="5">
         <f t="shared" si="1"/>
         <v>0.1095979247730221</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D15" s="4">
         <v>1642</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E15" s="4">
         <v>1834</v>
       </c>
-      <c r="F12" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>0.11693057247259442</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D16" s="4">
         <v>1579</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E16" s="4">
         <v>2105</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <f>E13/MIN(D13:E13)-1</f>
+      <c r="F16" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <f>E16/MIN(D16:E16)-1</f>
         <v>0.33312222925902479</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D17" s="4">
         <v>1573</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E17" s="4">
         <v>1373</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F17" s="5">
         <f t="shared" si="1"/>
         <v>0.14566642388929352</v>
       </c>
-      <c r="G14" s="2">
-        <f t="shared" ref="G14:G28" si="2">E14/MIN(D14:E14)-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+      <c r="G17" s="5">
+        <f t="shared" ref="G17:G31" si="2">E17/MIN(D17:E17)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D18" s="4">
         <v>1544</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E18" s="4">
         <v>940</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F18" s="5">
         <f t="shared" si="1"/>
         <v>0.64255319148936163</v>
       </c>
-      <c r="G15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+      <c r="G18" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D19" s="4">
         <v>1480</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E19" s="4">
         <v>1298</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F19" s="5">
         <f t="shared" si="1"/>
         <v>0.1402157164869029</v>
       </c>
-      <c r="G16" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+      <c r="G19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D20" s="4">
         <v>1370</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E20" s="4">
         <v>1329</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F20" s="5">
         <f t="shared" si="1"/>
         <v>3.0850263355906682E-2</v>
       </c>
-      <c r="G17" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+      <c r="G20" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D21" s="4">
         <v>1295</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E21" s="4">
         <v>1836</v>
       </c>
-      <c r="F18" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F21" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="2"/>
         <v>0.41776061776061768</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D22" s="4">
         <v>1294</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E22" s="4">
         <v>1312</v>
       </c>
-      <c r="F19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="F22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="2"/>
         <v>1.391035548686248E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D23" s="4">
         <v>1276</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E23" s="4">
         <v>1192</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F23" s="5">
         <f t="shared" si="1"/>
         <v>7.0469798657718075E-2</v>
       </c>
-      <c r="G20" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
+      <c r="G23" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D24" s="4">
         <v>1249</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E24" s="4">
         <v>1058</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F24" s="5">
         <f t="shared" si="1"/>
         <v>0.18052930056710781</v>
       </c>
-      <c r="G21" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
+      <c r="G24" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D25" s="4">
         <v>1240</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E25" s="4">
         <v>1061</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F25" s="5">
         <f t="shared" si="1"/>
         <v>0.16870876531573997</v>
       </c>
-      <c r="G22" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+      <c r="G25" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D26" s="4">
         <v>1186</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E26" s="4">
         <v>872</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F26" s="5">
         <f t="shared" si="1"/>
         <v>0.36009174311926606</v>
       </c>
-      <c r="G23" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+      <c r="G26" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D27" s="4">
         <v>1155</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E27" s="4">
         <v>947</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F27" s="5">
         <f t="shared" si="1"/>
         <v>0.21964097148891226</v>
       </c>
-      <c r="G24" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+      <c r="G27" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D28" s="4">
         <v>1128</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E28" s="4">
         <v>670</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F28" s="5">
         <f t="shared" si="1"/>
         <v>0.68358208955223887</v>
       </c>
-      <c r="G25" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+      <c r="G28" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D29" s="4">
         <v>1041</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E29" s="4">
         <v>1133</v>
       </c>
-      <c r="F26" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="F29" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
         <f t="shared" si="2"/>
         <v>8.8376560999039455E-2</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D30" s="4">
         <v>1010</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E30" s="4">
         <v>950</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F30" s="5">
         <f t="shared" si="1"/>
         <v>6.315789473684208E-2</v>
       </c>
-      <c r="G27" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+      <c r="G30" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D31" s="4">
         <v>960</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E31" s="4">
         <v>1086</v>
       </c>
-      <c r="F28" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="F31" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
         <f t="shared" si="2"/>
         <v>0.13125000000000009</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:G28">
+  <conditionalFormatting sqref="F5:G31">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
